--- a/biology/Botanique/Lord_Lambourne/Lord_Lambourne.xlsx
+++ b/biology/Botanique/Lord_Lambourne/Lord_Lambourne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lord Lambourne est le nom d'un cultivar de pommier domestique.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La variété a été obtenue par Laxton Brothers Nurseries à Bedfordshire, en Angleterre, en 1907.
 </t>
@@ -542,10 +556,12 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Croisement de James Grieve x Worcester Pearmain [1].
-Les variétés Katy et Elton Beauty ont les mêmes parents que la variété Lord Lambourne[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Croisement de James Grieve x Worcester Pearmain .
+Les variétés Katy et Elton Beauty ont les mêmes parents que la variété Lord Lambourne.
 Lord Lambourne est parent direct de :
 Rubin
 Vanda
@@ -578,13 +594,15 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une pomme à couteau de moyenne saison[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une pomme à couteau de moyenne saison.
 Le fruit est conique-arrondi, aplati.
 Son épiderme est vert-doré, lavé de rouge-marron et de stries brisées. rouges.
 Un liège léger est présent à la surface de la pomme, à partir du pédoncule et dans sa cavité.
-Sa chair est de texture un peu grossière, juteuse, avec une saveur douce et aromatique[3].
+Sa chair est de texture un peu grossière, juteuse, avec une saveur douce et aromatique.
 </t>
         </is>
       </c>
@@ -613,9 +631,11 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une variété résistante à l'oïdium[3] et à la tavelure[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une variété résistante à l'oïdium et à la tavelure.
 </t>
         </is>
       </c>
@@ -644,11 +664,13 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Cultivar diploïde, légèrement autofertile[4].
-Groupe de floraison: B (mi-précoce) [5].
-S-génotype: S2S5 [6].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cultivar diploïde, légèrement autofertile.
+Groupe de floraison: B (mi-précoce) .
+S-génotype: S2S5 .</t>
         </is>
       </c>
     </row>
@@ -676,9 +698,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Award of Garden Merit (H4) 1993 [7].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Award of Garden Merit (H4) 1993 .</t>
         </is>
       </c>
     </row>
